--- a/Input/NLGI_NAS/rateSheet.xlsx
+++ b/Input/NLGI_NAS/rateSheet.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -242,10 +242,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -253,11 +249,11 @@
   </sheetPr>
   <dimension ref="A1:J541"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A283" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H305" activeCellId="0" sqref="H305"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A403" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G421" activeCellId="0" sqref="G421"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.32"/>
@@ -318,7 +314,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>11481.82</v>
+        <v>14646</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>14</v>
@@ -350,7 +346,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>7955.73</v>
+        <v>10148</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>14</v>
@@ -382,7 +378,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>7673.18</v>
+        <v>9788</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>14</v>
@@ -414,7 +410,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>6517.55</v>
+        <v>8314</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>14</v>
@@ -446,7 +442,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6076.39</v>
+        <v>7751</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>14</v>
@@ -478,7 +474,7 @@
         <v>30</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>6686.68</v>
+        <v>8529</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>14</v>
@@ -510,7 +506,7 @@
         <v>35</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>7180.43</v>
+        <v>9159</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>14</v>
@@ -542,7 +538,7 @@
         <v>40</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>7997.06</v>
+        <v>10201</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>14</v>
@@ -574,7 +570,7 @@
         <v>45</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>8854.25</v>
+        <v>11294</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>14</v>
@@ -606,7 +602,7 @@
         <v>50</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>10547.37</v>
+        <v>13454</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>14</v>
@@ -638,7 +634,7 @@
         <v>55</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>13605.09</v>
+        <v>17354</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>14</v>
@@ -670,7 +666,7 @@
         <v>60</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>15274.47</v>
+        <v>19484</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>14</v>
@@ -702,7 +698,7 @@
         <v>65</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>23093.25</v>
+        <v>29457</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>14</v>
@@ -734,7 +730,7 @@
         <v>99</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>34215.08</v>
+        <v>43644</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>14</v>
@@ -766,7 +762,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>11481.82</v>
+        <v>14646</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>14</v>
@@ -798,7 +794,7 @@
         <v>5</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>7955.73</v>
+        <v>10148</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>14</v>
@@ -830,7 +826,7 @@
         <v>15</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>7673.18</v>
+        <v>9788</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>14</v>
@@ -862,7 +858,7 @@
         <v>20</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>7323.25</v>
+        <v>9341</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>14</v>
@@ -894,7 +890,7 @@
         <v>25</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>12971.96</v>
+        <v>16547</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>14</v>
@@ -926,7 +922,7 @@
         <v>30</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>14799.73</v>
+        <v>18878</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>14</v>
@@ -958,7 +954,7 @@
         <v>35</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>13951.23</v>
+        <v>17796</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>14</v>
@@ -990,7 +986,7 @@
         <v>40</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>11825.02</v>
+        <v>15084</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>14</v>
@@ -1022,7 +1018,7 @@
         <v>45</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>11845.43</v>
+        <v>15110</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>14</v>
@@ -1054,7 +1050,7 @@
         <v>50</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>13746.29</v>
+        <v>17535</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>14</v>
@@ -1086,7 +1082,7 @@
         <v>55</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>15796.32</v>
+        <v>20150</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>14</v>
@@ -1118,7 +1114,7 @@
         <v>60</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>17939.28</v>
+        <v>22883</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>14</v>
@@ -1150,7 +1146,7 @@
         <v>65</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>28529.77</v>
+        <v>36392</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>14</v>
@@ -1182,7 +1178,7 @@
         <v>99</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>34215.08</v>
+        <v>43644</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>14</v>
@@ -1214,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>10239.69</v>
+        <v>13062</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>14</v>
@@ -1246,7 +1242,7 @@
         <v>5</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>7060.63</v>
+        <v>9006</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>14</v>
@@ -1278,7 +1274,7 @@
         <v>15</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>6795.57</v>
+        <v>8668</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>14</v>
@@ -1310,7 +1306,7 @@
         <v>20</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>5583.98</v>
+        <v>7123</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>14</v>
@@ -1342,7 +1338,7 @@
         <v>25</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>5485.43</v>
+        <v>6997</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>14</v>
@@ -1374,7 +1370,7 @@
         <v>30</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>6026.2</v>
+        <v>7687</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>14</v>
@@ -1406,7 +1402,7 @@
         <v>35</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>6457.11</v>
+        <v>8237</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>14</v>
@@ -1438,7 +1434,7 @@
         <v>40</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>7205.09</v>
+        <v>9191</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>14</v>
@@ -1470,7 +1466,7 @@
         <v>45</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>7978.37</v>
+        <v>10177</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>14</v>
@@ -1502,7 +1498,7 @@
         <v>50</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>9565.3</v>
+        <v>12201</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>14</v>
@@ -1534,7 +1530,7 @@
         <v>55</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>12308.6</v>
+        <v>15701</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>14</v>
@@ -1566,7 +1562,7 @@
         <v>60</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>13829.78</v>
+        <v>17641</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>14</v>
@@ -1598,7 +1594,7 @@
         <v>65</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>20942.52</v>
+        <v>26714</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>14</v>
@@ -1630,7 +1626,7 @@
         <v>99</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>31003.99</v>
+        <v>39548</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>14</v>
@@ -1662,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>10239.69</v>
+        <v>13062</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>14</v>
@@ -1694,7 +1690,7 @@
         <v>5</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>7060.63</v>
+        <v>9006</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>14</v>
@@ -1726,7 +1722,7 @@
         <v>15</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>6795.57</v>
+        <v>8668</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>14</v>
@@ -1758,7 +1754,7 @@
         <v>20</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>6467.19</v>
+        <v>8249</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>14</v>
@@ -1790,7 +1786,7 @@
         <v>25</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>11641.59</v>
+        <v>14850</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>14</v>
@@ -1822,7 +1818,7 @@
         <v>30</v>
       </c>
       <c r="G49" s="6" t="n">
-        <v>13343.7</v>
+        <v>17021</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>14</v>
@@ -1854,7 +1850,7 @@
         <v>35</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>12637.35</v>
+        <v>16120</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>14</v>
@@ -1886,7 +1882,7 @@
         <v>40</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>10638.74</v>
+        <v>13571</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>14</v>
@@ -1918,7 +1914,7 @@
         <v>45</v>
       </c>
       <c r="G52" s="6" t="n">
-        <v>10616.18</v>
+        <v>13542</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>14</v>
@@ -1950,7 +1946,7 @@
         <v>50</v>
       </c>
       <c r="G53" s="6" t="n">
-        <v>12268.75</v>
+        <v>15650</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>14</v>
@@ -1982,7 +1978,7 @@
         <v>55</v>
       </c>
       <c r="G54" s="6" t="n">
-        <v>14087.42</v>
+        <v>17970</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>14</v>
@@ -2014,7 +2010,7 @@
         <v>60</v>
       </c>
       <c r="G55" s="6" t="n">
-        <v>16028.86</v>
+        <v>20446</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>14</v>
@@ -2046,7 +2042,7 @@
         <v>65</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>25480.66</v>
+        <v>32503</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>14</v>
@@ -2078,7 +2074,7 @@
         <v>99</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>30829.81</v>
+        <v>39326</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>14</v>
@@ -2110,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="6" t="n">
-        <v>7815.98</v>
+        <v>9970</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>14</v>
@@ -2142,7 +2138,7 @@
         <v>5</v>
       </c>
       <c r="G59" s="6" t="n">
-        <v>5428.32</v>
+        <v>6924</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>14</v>
@@ -2174,7 +2170,7 @@
         <v>15</v>
       </c>
       <c r="G60" s="6" t="n">
-        <v>5195.16</v>
+        <v>6627</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>14</v>
@@ -2206,7 +2202,7 @@
         <v>20</v>
       </c>
       <c r="G61" s="6" t="n">
-        <v>4265.65</v>
+        <v>5441</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>14</v>
@@ -2238,7 +2234,7 @@
         <v>25</v>
       </c>
       <c r="G62" s="6" t="n">
-        <v>4213.76</v>
+        <v>5375</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>14</v>
@@ -2270,7 +2266,7 @@
         <v>30</v>
       </c>
       <c r="G63" s="6" t="n">
-        <v>4635.59</v>
+        <v>5913</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>14</v>
@@ -2302,7 +2298,7 @@
         <v>35</v>
       </c>
       <c r="G64" s="6" t="n">
-        <v>4976.17</v>
+        <v>6348</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>14</v>
@@ -2334,7 +2330,7 @@
         <v>40</v>
       </c>
       <c r="G65" s="6" t="n">
-        <v>5542.36</v>
+        <v>7070</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>14</v>
@@ -2366,7 +2362,7 @@
         <v>45</v>
       </c>
       <c r="G66" s="6" t="n">
-        <v>6131.01</v>
+        <v>7821</v>
       </c>
       <c r="H66" s="0" t="s">
         <v>14</v>
@@ -2398,7 +2394,7 @@
         <v>50</v>
       </c>
       <c r="G67" s="6" t="n">
-        <v>7335.05</v>
+        <v>9356</v>
       </c>
       <c r="H67" s="0" t="s">
         <v>14</v>
@@ -2430,7 +2426,7 @@
         <v>55</v>
       </c>
       <c r="G68" s="6" t="n">
-        <v>9425.95</v>
+        <v>12024</v>
       </c>
       <c r="H68" s="0" t="s">
         <v>14</v>
@@ -2462,7 +2458,7 @@
         <v>60</v>
       </c>
       <c r="G69" s="6" t="n">
-        <v>10575.4</v>
+        <v>13490</v>
       </c>
       <c r="H69" s="0" t="s">
         <v>14</v>
@@ -2494,7 +2490,7 @@
         <v>65</v>
       </c>
       <c r="G70" s="6" t="n">
-        <v>15994.12</v>
+        <v>20402</v>
       </c>
       <c r="H70" s="0" t="s">
         <v>14</v>
@@ -2526,7 +2522,7 @@
         <v>99</v>
       </c>
       <c r="G71" s="6" t="n">
-        <v>23679.94</v>
+        <v>30206</v>
       </c>
       <c r="H71" s="0" t="s">
         <v>14</v>
@@ -2558,7 +2554,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="6" t="n">
-        <v>7815.98</v>
+        <v>9970</v>
       </c>
       <c r="H72" s="0" t="s">
         <v>14</v>
@@ -2590,7 +2586,7 @@
         <v>5</v>
       </c>
       <c r="G73" s="6" t="n">
-        <v>5428.32</v>
+        <v>6924</v>
       </c>
       <c r="H73" s="0" t="s">
         <v>14</v>
@@ -2622,7 +2618,7 @@
         <v>15</v>
       </c>
       <c r="G74" s="6" t="n">
-        <v>5195.16</v>
+        <v>6627</v>
       </c>
       <c r="H74" s="0" t="s">
         <v>14</v>
@@ -2654,7 +2650,7 @@
         <v>20</v>
       </c>
       <c r="G75" s="6" t="n">
-        <v>4956.98</v>
+        <v>6323</v>
       </c>
       <c r="H75" s="0" t="s">
         <v>14</v>
@@ -2686,7 +2682,7 @@
         <v>25</v>
       </c>
       <c r="G76" s="6" t="n">
-        <v>8932.53</v>
+        <v>11394</v>
       </c>
       <c r="H76" s="0" t="s">
         <v>14</v>
@@ -2718,7 +2714,7 @@
         <v>30</v>
       </c>
       <c r="G77" s="6" t="n">
-        <v>10193.08</v>
+        <v>13002</v>
       </c>
       <c r="H77" s="0" t="s">
         <v>14</v>
@@ -2750,7 +2746,7 @@
         <v>35</v>
       </c>
       <c r="G78" s="6" t="n">
-        <v>9615.43</v>
+        <v>12265</v>
       </c>
       <c r="H78" s="0" t="s">
         <v>14</v>
@@ -2782,7 +2778,7 @@
         <v>40</v>
       </c>
       <c r="G79" s="6" t="n">
-        <v>8143.87</v>
+        <v>10388</v>
       </c>
       <c r="H79" s="0" t="s">
         <v>14</v>
@@ -2814,7 +2810,7 @@
         <v>45</v>
       </c>
       <c r="G80" s="6" t="n">
-        <v>8153.24</v>
+        <v>10400</v>
       </c>
       <c r="H80" s="0" t="s">
         <v>14</v>
@@ -2846,7 +2842,7 @@
         <v>50</v>
       </c>
       <c r="G81" s="6" t="n">
-        <v>9454.8</v>
+        <v>12060</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>14</v>
@@ -2878,7 +2874,7 @@
         <v>55</v>
       </c>
       <c r="G82" s="6" t="n">
-        <v>10863.33</v>
+        <v>13857</v>
       </c>
       <c r="H82" s="0" t="s">
         <v>14</v>
@@ -2910,7 +2906,7 @@
         <v>60</v>
       </c>
       <c r="G83" s="6" t="n">
-        <v>12336.22</v>
+        <v>15736</v>
       </c>
       <c r="H83" s="0" t="s">
         <v>14</v>
@@ -2942,7 +2938,7 @@
         <v>65</v>
       </c>
       <c r="G84" s="6" t="n">
-        <v>19613.8</v>
+        <v>25019</v>
       </c>
       <c r="H84" s="0" t="s">
         <v>14</v>
@@ -2974,7 +2970,7 @@
         <v>99</v>
       </c>
       <c r="G85" s="6" t="n">
-        <v>23546.16</v>
+        <v>30035</v>
       </c>
       <c r="H85" s="0" t="s">
         <v>14</v>
@@ -3006,7 +3002,7 @@
         <v>1</v>
       </c>
       <c r="G86" s="6" t="n">
-        <v>6032.25</v>
+        <v>7695</v>
       </c>
       <c r="H86" s="0" t="s">
         <v>14</v>
@@ -3038,7 +3034,7 @@
         <v>5</v>
       </c>
       <c r="G87" s="6" t="n">
-        <v>4178.23</v>
+        <v>5330</v>
       </c>
       <c r="H87" s="0" t="s">
         <v>14</v>
@@ -3070,7 +3066,7 @@
         <v>15</v>
       </c>
       <c r="G88" s="6" t="n">
-        <v>3969.28</v>
+        <v>5063</v>
       </c>
       <c r="H88" s="0" t="s">
         <v>14</v>
@@ -3102,7 +3098,7 @@
         <v>20</v>
       </c>
       <c r="G89" s="6" t="n">
-        <v>3263.38</v>
+        <v>4163</v>
       </c>
       <c r="H89" s="0" t="s">
         <v>14</v>
@@ -3134,7 +3130,7 @@
         <v>25</v>
       </c>
       <c r="G90" s="6" t="n">
-        <v>3196.36</v>
+        <v>4077</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>14</v>
@@ -3166,7 +3162,7 @@
         <v>30</v>
       </c>
       <c r="G91" s="6" t="n">
-        <v>3510.27</v>
+        <v>4478</v>
       </c>
       <c r="H91" s="0" t="s">
         <v>14</v>
@@ -3198,7 +3194,7 @@
         <v>35</v>
       </c>
       <c r="G92" s="6" t="n">
-        <v>3759.92</v>
+        <v>4796</v>
       </c>
       <c r="H92" s="0" t="s">
         <v>14</v>
@@ -3230,7 +3226,7 @@
         <v>40</v>
       </c>
       <c r="G93" s="6" t="n">
-        <v>4194.95</v>
+        <v>5351</v>
       </c>
       <c r="H93" s="0" t="s">
         <v>14</v>
@@ -3262,7 +3258,7 @@
         <v>45</v>
       </c>
       <c r="G94" s="6" t="n">
-        <v>4644.65</v>
+        <v>5925</v>
       </c>
       <c r="H94" s="0" t="s">
         <v>14</v>
@@ -3294,7 +3290,7 @@
         <v>50</v>
       </c>
       <c r="G95" s="6" t="n">
-        <v>5567.57</v>
+        <v>7102</v>
       </c>
       <c r="H95" s="0" t="s">
         <v>14</v>
@@ -3326,7 +3322,7 @@
         <v>55</v>
       </c>
       <c r="G96" s="6" t="n">
-        <v>7162.73</v>
+        <v>9137</v>
       </c>
       <c r="H96" s="0" t="s">
         <v>14</v>
@@ -3358,7 +3354,7 @@
         <v>60</v>
       </c>
       <c r="G97" s="6" t="n">
-        <v>8054.87</v>
+        <v>10275</v>
       </c>
       <c r="H97" s="0" t="s">
         <v>14</v>
@@ -3390,7 +3386,7 @@
         <v>65</v>
       </c>
       <c r="G98" s="6" t="n">
-        <v>12182.61</v>
+        <v>15540</v>
       </c>
       <c r="H98" s="0" t="s">
         <v>14</v>
@@ -3422,7 +3418,7 @@
         <v>99</v>
       </c>
       <c r="G99" s="6" t="n">
-        <v>18031.27</v>
+        <v>23000</v>
       </c>
       <c r="H99" s="0" t="s">
         <v>14</v>
@@ -3454,7 +3450,7 @@
         <v>1</v>
       </c>
       <c r="G100" s="6" t="n">
-        <v>6032.25</v>
+        <v>7695</v>
       </c>
       <c r="H100" s="0" t="s">
         <v>14</v>
@@ -3486,7 +3482,7 @@
         <v>5</v>
       </c>
       <c r="G101" s="6" t="n">
-        <v>4178.23</v>
+        <v>5330</v>
       </c>
       <c r="H101" s="0" t="s">
         <v>14</v>
@@ -3518,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="G102" s="6" t="n">
-        <v>3969.28</v>
+        <v>5063</v>
       </c>
       <c r="H102" s="0" t="s">
         <v>14</v>
@@ -3550,7 +3546,7 @@
         <v>20</v>
       </c>
       <c r="G103" s="6" t="n">
-        <v>3776.96</v>
+        <v>4818</v>
       </c>
       <c r="H103" s="0" t="s">
         <v>14</v>
@@ -3582,7 +3578,7 @@
         <v>25</v>
       </c>
       <c r="G104" s="6" t="n">
-        <v>6691.91</v>
+        <v>8536</v>
       </c>
       <c r="H104" s="0" t="s">
         <v>14</v>
@@ -3614,7 +3610,7 @@
         <v>30</v>
       </c>
       <c r="G105" s="6" t="n">
-        <v>7672.94</v>
+        <v>9787</v>
       </c>
       <c r="H105" s="0" t="s">
         <v>14</v>
@@ -3646,7 +3642,7 @@
         <v>35</v>
       </c>
       <c r="G106" s="6" t="n">
-        <v>7268.31</v>
+        <v>9271</v>
       </c>
       <c r="H106" s="0" t="s">
         <v>14</v>
@@ -3678,7 +3674,7 @@
         <v>40</v>
       </c>
       <c r="G107" s="6" t="n">
-        <v>6118.34</v>
+        <v>7804</v>
       </c>
       <c r="H107" s="0" t="s">
         <v>14</v>
@@ -3710,7 +3706,7 @@
         <v>45</v>
       </c>
       <c r="G108" s="6" t="n">
-        <v>6104.81</v>
+        <v>7787</v>
       </c>
       <c r="H108" s="0" t="s">
         <v>14</v>
@@ -3742,7 +3738,7 @@
         <v>50</v>
       </c>
       <c r="G109" s="6" t="n">
-        <v>7094.04</v>
+        <v>9049</v>
       </c>
       <c r="H109" s="0" t="s">
         <v>14</v>
@@ -3774,7 +3770,7 @@
         <v>55</v>
       </c>
       <c r="G110" s="6" t="n">
-        <v>8097.03</v>
+        <v>10328</v>
       </c>
       <c r="H110" s="0" t="s">
         <v>14</v>
@@ -3806,7 +3802,7 @@
         <v>60</v>
       </c>
       <c r="G111" s="6" t="n">
-        <v>9214.31</v>
+        <v>11754</v>
       </c>
       <c r="H111" s="0" t="s">
         <v>14</v>
@@ -3838,7 +3834,7 @@
         <v>65</v>
       </c>
       <c r="G112" s="6" t="n">
-        <v>14641.81</v>
+        <v>18677</v>
       </c>
       <c r="H112" s="0" t="s">
         <v>14</v>
@@ -3870,7 +3866,7 @@
         <v>99</v>
       </c>
       <c r="G113" s="6" t="n">
-        <v>17721.76</v>
+        <v>22606</v>
       </c>
       <c r="H113" s="0" t="s">
         <v>14</v>
@@ -3902,7 +3898,7 @@
         <v>1</v>
       </c>
       <c r="G114" s="6" t="n">
-        <v>3255.04</v>
+        <v>5020</v>
       </c>
       <c r="H114" s="0" t="s">
         <v>14</v>
@@ -3934,7 +3930,7 @@
         <v>5</v>
       </c>
       <c r="G115" s="6" t="n">
-        <v>2282.4</v>
+        <v>3453</v>
       </c>
       <c r="H115" s="0" t="s">
         <v>14</v>
@@ -3966,7 +3962,7 @@
         <v>15</v>
       </c>
       <c r="G116" s="6" t="n">
-        <v>2110.63</v>
+        <v>2668</v>
       </c>
       <c r="H116" s="0" t="s">
         <v>14</v>
@@ -3998,7 +3994,7 @@
         <v>20</v>
       </c>
       <c r="G117" s="6" t="n">
-        <v>1736.17</v>
+        <v>2585</v>
       </c>
       <c r="H117" s="0" t="s">
         <v>14</v>
@@ -4030,7 +4026,7 @@
         <v>25</v>
       </c>
       <c r="G118" s="6" t="n">
-        <v>1675.42</v>
+        <v>2602</v>
       </c>
       <c r="H118" s="0" t="s">
         <v>14</v>
@@ -4062,7 +4058,7 @@
         <v>30</v>
       </c>
       <c r="G119" s="6" t="n">
-        <v>1840.47</v>
+        <v>2813</v>
       </c>
       <c r="H119" s="0" t="s">
         <v>14</v>
@@ -4094,7 +4090,7 @@
         <v>35</v>
       </c>
       <c r="G120" s="6" t="n">
-        <v>1972.38</v>
+        <v>3051</v>
       </c>
       <c r="H120" s="0" t="s">
         <v>14</v>
@@ -4126,7 +4122,7 @@
         <v>40</v>
       </c>
       <c r="G121" s="6" t="n">
-        <v>2197.48</v>
+        <v>3389</v>
       </c>
       <c r="H121" s="0" t="s">
         <v>14</v>
@@ -4158,7 +4154,7 @@
         <v>45</v>
       </c>
       <c r="G122" s="6" t="n">
-        <v>2432.05</v>
+        <v>3835</v>
       </c>
       <c r="H122" s="0" t="s">
         <v>14</v>
@@ -4190,7 +4186,7 @@
         <v>50</v>
       </c>
       <c r="G123" s="6" t="n">
-        <v>2910.46</v>
+        <v>4554</v>
       </c>
       <c r="H123" s="0" t="s">
         <v>14</v>
@@ -4222,7 +4218,7 @@
         <v>55</v>
       </c>
       <c r="G124" s="6" t="n">
-        <v>3738.43</v>
+        <v>5401</v>
       </c>
       <c r="H124" s="0" t="s">
         <v>14</v>
@@ -4254,7 +4250,7 @@
         <v>60</v>
       </c>
       <c r="G125" s="6" t="n">
-        <v>4200.19</v>
+        <v>6265</v>
       </c>
       <c r="H125" s="0" t="s">
         <v>14</v>
@@ -4286,7 +4282,7 @@
         <v>65</v>
       </c>
       <c r="G126" s="6" t="n">
-        <v>6343.93</v>
+        <v>9236</v>
       </c>
       <c r="H126" s="0" t="s">
         <v>14</v>
@@ -4318,7 +4314,7 @@
         <v>99</v>
       </c>
       <c r="G127" s="6" t="n">
-        <v>9388.52</v>
+        <v>12609</v>
       </c>
       <c r="H127" s="0" t="s">
         <v>14</v>
@@ -4350,7 +4346,7 @@
         <v>1</v>
       </c>
       <c r="G128" s="6" t="n">
-        <v>3255.04</v>
+        <v>5020</v>
       </c>
       <c r="H128" s="0" t="s">
         <v>14</v>
@@ -4382,7 +4378,7 @@
         <v>5</v>
       </c>
       <c r="G129" s="6" t="n">
-        <v>2282.4</v>
+        <v>3453</v>
       </c>
       <c r="H129" s="0" t="s">
         <v>14</v>
@@ -4414,7 +4410,7 @@
         <v>15</v>
       </c>
       <c r="G130" s="6" t="n">
-        <v>2110.63</v>
+        <v>2668</v>
       </c>
       <c r="H130" s="0" t="s">
         <v>14</v>
@@ -4446,7 +4442,7 @@
         <v>20</v>
       </c>
       <c r="G131" s="6" t="n">
-        <v>2011.23</v>
+        <v>2996</v>
       </c>
       <c r="H131" s="0" t="s">
         <v>14</v>
@@ -4478,7 +4474,7 @@
         <v>25</v>
       </c>
       <c r="G132" s="6" t="n">
-        <v>3559.11</v>
+        <v>5556</v>
       </c>
       <c r="H132" s="0" t="s">
         <v>14</v>
@@ -4510,7 +4506,7 @@
         <v>30</v>
       </c>
       <c r="G133" s="6" t="n">
-        <v>4070.47</v>
+        <v>6306</v>
       </c>
       <c r="H133" s="0" t="s">
         <v>14</v>
@@ -4542,7 +4538,7 @@
         <v>35</v>
       </c>
       <c r="G134" s="6" t="n">
-        <v>3848.73</v>
+        <v>5952</v>
       </c>
       <c r="H134" s="0" t="s">
         <v>14</v>
@@ -4574,7 +4570,7 @@
         <v>40</v>
       </c>
       <c r="G135" s="6" t="n">
-        <v>3250.95</v>
+        <v>5102</v>
       </c>
       <c r="H135" s="0" t="s">
         <v>14</v>
@@ -4606,7 +4602,7 @@
         <v>45</v>
       </c>
       <c r="G136" s="6" t="n">
-        <v>3249.06</v>
+        <v>5112</v>
       </c>
       <c r="H136" s="0" t="s">
         <v>14</v>
@@ -4638,7 +4634,7 @@
         <v>50</v>
       </c>
       <c r="G137" s="6" t="n">
-        <v>3758.57</v>
+        <v>5955</v>
       </c>
       <c r="H137" s="0" t="s">
         <v>14</v>
@@ -4670,7 +4666,7 @@
         <v>55</v>
       </c>
       <c r="G138" s="6" t="n">
-        <v>4315.61</v>
+        <v>6470</v>
       </c>
       <c r="H138" s="0" t="s">
         <v>14</v>
@@ -4702,7 +4698,7 @@
         <v>60</v>
       </c>
       <c r="G139" s="6" t="n">
-        <v>4904.8</v>
+        <v>7423</v>
       </c>
       <c r="H139" s="0" t="s">
         <v>14</v>
@@ -4734,7 +4730,7 @@
         <v>65</v>
       </c>
       <c r="G140" s="6" t="n">
-        <v>7788.89</v>
+        <v>11773</v>
       </c>
       <c r="H140" s="0" t="s">
         <v>14</v>
@@ -4766,7 +4762,7 @@
         <v>99</v>
       </c>
       <c r="G141" s="6" t="n">
-        <v>9388.52</v>
+        <v>12609</v>
       </c>
       <c r="H141" s="0" t="s">
         <v>14</v>
@@ -4798,7 +4794,7 @@
         <v>1</v>
       </c>
       <c r="G142" s="6" t="n">
-        <v>10485.68</v>
+        <v>13375</v>
       </c>
       <c r="H142" s="0" t="s">
         <v>26</v>
@@ -4830,7 +4826,7 @@
         <v>5</v>
       </c>
       <c r="G143" s="6" t="n">
-        <v>7265.51</v>
+        <v>9268</v>
       </c>
       <c r="H143" s="0" t="s">
         <v>26</v>
@@ -4862,7 +4858,7 @@
         <v>15</v>
       </c>
       <c r="G144" s="6" t="n">
-        <v>7007.47</v>
+        <v>8939</v>
       </c>
       <c r="H144" s="0" t="s">
         <v>26</v>
@@ -4894,7 +4890,7 @@
         <v>20</v>
       </c>
       <c r="G145" s="6" t="n">
-        <v>5952.1</v>
+        <v>7592</v>
       </c>
       <c r="H145" s="0" t="s">
         <v>26</v>
@@ -4926,7 +4922,7 @@
         <v>25</v>
       </c>
       <c r="G146" s="6" t="n">
-        <v>5549.22</v>
+        <v>7078</v>
       </c>
       <c r="H146" s="0" t="s">
         <v>26</v>
@@ -4958,7 +4954,7 @@
         <v>30</v>
       </c>
       <c r="G147" s="6" t="n">
-        <v>6106.56</v>
+        <v>7789</v>
       </c>
       <c r="H147" s="0" t="s">
         <v>26</v>
@@ -4990,7 +4986,7 @@
         <v>35</v>
       </c>
       <c r="G148" s="6" t="n">
-        <v>6557.47</v>
+        <v>8365</v>
       </c>
       <c r="H148" s="0" t="s">
         <v>26</v>
@@ -5022,7 +5018,7 @@
         <v>40</v>
       </c>
       <c r="G149" s="6" t="n">
-        <v>7303.26</v>
+        <v>9316</v>
       </c>
       <c r="H149" s="0" t="s">
         <v>26</v>
@@ -5054,7 +5050,7 @@
         <v>45</v>
       </c>
       <c r="G150" s="6" t="n">
-        <v>8086.07</v>
+        <v>10314</v>
       </c>
       <c r="H150" s="0" t="s">
         <v>26</v>
@@ -5086,7 +5082,7 @@
         <v>50</v>
       </c>
       <c r="G151" s="6" t="n">
-        <v>9632.3</v>
+        <v>12287</v>
       </c>
       <c r="H151" s="0" t="s">
         <v>26</v>
@@ -5118,7 +5114,7 @@
         <v>55</v>
       </c>
       <c r="G152" s="6" t="n">
-        <v>12424.74</v>
+        <v>15849</v>
       </c>
       <c r="H152" s="0" t="s">
         <v>26</v>
@@ -5150,7 +5146,7 @@
         <v>60</v>
       </c>
       <c r="G153" s="6" t="n">
-        <v>13949.29</v>
+        <v>17793</v>
       </c>
       <c r="H153" s="0" t="s">
         <v>26</v>
@@ -5182,7 +5178,7 @@
         <v>65</v>
       </c>
       <c r="G154" s="6" t="n">
-        <v>21089.73</v>
+        <v>26902</v>
       </c>
       <c r="H154" s="0" t="s">
         <v>26</v>
@@ -5214,7 +5210,7 @@
         <v>99</v>
       </c>
       <c r="G155" s="6" t="n">
-        <v>31246.64</v>
+        <v>39858</v>
       </c>
       <c r="H155" s="0" t="s">
         <v>26</v>
@@ -5246,7 +5242,7 @@
         <v>1</v>
       </c>
       <c r="G156" s="6" t="n">
-        <v>10485.68</v>
+        <v>13375</v>
       </c>
       <c r="H156" s="0" t="s">
         <v>26</v>
@@ -5278,7 +5274,7 @@
         <v>5</v>
       </c>
       <c r="G157" s="6" t="n">
-        <v>7265.51</v>
+        <v>9268</v>
       </c>
       <c r="H157" s="0" t="s">
         <v>26</v>
@@ -5310,7 +5306,7 @@
         <v>15</v>
       </c>
       <c r="G158" s="6" t="n">
-        <v>7007.47</v>
+        <v>8939</v>
       </c>
       <c r="H158" s="0" t="s">
         <v>26</v>
@@ -5342,7 +5338,7 @@
         <v>20</v>
       </c>
       <c r="G159" s="6" t="n">
-        <v>6687.9</v>
+        <v>8531</v>
       </c>
       <c r="H159" s="0" t="s">
         <v>26</v>
@@ -5374,7 +5370,7 @@
         <v>25</v>
       </c>
       <c r="G160" s="6" t="n">
-        <v>11846.54</v>
+        <v>15111</v>
       </c>
       <c r="H160" s="0" t="s">
         <v>26</v>
@@ -5406,7 +5402,7 @@
         <v>30</v>
       </c>
       <c r="G161" s="6" t="n">
-        <v>13515.74</v>
+        <v>17240</v>
       </c>
       <c r="H161" s="0" t="s">
         <v>26</v>
@@ -5438,7 +5434,7 @@
         <v>35</v>
       </c>
       <c r="G162" s="6" t="n">
-        <v>12740.85</v>
+        <v>16252</v>
       </c>
       <c r="H162" s="0" t="s">
         <v>26</v>
@@ -5470,7 +5466,7 @@
         <v>40</v>
       </c>
       <c r="G163" s="6" t="n">
-        <v>10799.11</v>
+        <v>13775</v>
       </c>
       <c r="H163" s="0" t="s">
         <v>26</v>
@@ -5502,7 +5498,7 @@
         <v>45</v>
       </c>
       <c r="G164" s="6" t="n">
-        <v>10817.75</v>
+        <v>13799</v>
       </c>
       <c r="H164" s="0" t="s">
         <v>26</v>
@@ -5534,7 +5530,7 @@
         <v>50</v>
       </c>
       <c r="G165" s="6" t="n">
-        <v>12553.69</v>
+        <v>16013</v>
       </c>
       <c r="H165" s="0" t="s">
         <v>26</v>
@@ -5566,7 +5562,7 @@
         <v>55</v>
       </c>
       <c r="G166" s="6" t="n">
-        <v>14425.86</v>
+        <v>18401</v>
       </c>
       <c r="H166" s="0" t="s">
         <v>26</v>
@@ -5598,7 +5594,7 @@
         <v>60</v>
       </c>
       <c r="G167" s="6" t="n">
-        <v>16382.91</v>
+        <v>20898</v>
       </c>
       <c r="H167" s="0" t="s">
         <v>26</v>
@@ -5630,7 +5626,7 @@
         <v>65</v>
       </c>
       <c r="G168" s="6" t="n">
-        <v>26054.59</v>
+        <v>33235</v>
       </c>
       <c r="H168" s="0" t="s">
         <v>26</v>
@@ -5662,7 +5658,7 @@
         <v>99</v>
       </c>
       <c r="G169" s="6" t="n">
-        <v>31246.64</v>
+        <v>39858</v>
       </c>
       <c r="H169" s="0" t="s">
         <v>26</v>
@@ -5694,7 +5690,7 @@
         <v>1</v>
       </c>
       <c r="G170" s="6" t="n">
-        <v>9351.32</v>
+        <v>11928</v>
       </c>
       <c r="H170" s="0" t="s">
         <v>26</v>
@@ -5726,7 +5722,7 @@
         <v>5</v>
       </c>
       <c r="G171" s="6" t="n">
-        <v>6448.06</v>
+        <v>8225</v>
       </c>
       <c r="H171" s="0" t="s">
         <v>26</v>
@@ -5758,7 +5754,7 @@
         <v>15</v>
       </c>
       <c r="G172" s="6" t="n">
-        <v>6206</v>
+        <v>7916</v>
       </c>
       <c r="H172" s="0" t="s">
         <v>26</v>
@@ -5790,7 +5786,7 @@
         <v>20</v>
       </c>
       <c r="G173" s="6" t="n">
-        <v>5099.53</v>
+        <v>6505</v>
       </c>
       <c r="H173" s="0" t="s">
         <v>26</v>
@@ -5822,7 +5818,7 @@
         <v>25</v>
       </c>
       <c r="G174" s="6" t="n">
-        <v>5009.52</v>
+        <v>6390</v>
       </c>
       <c r="H174" s="0" t="s">
         <v>26</v>
@@ -5854,7 +5850,7 @@
         <v>30</v>
       </c>
       <c r="G175" s="6" t="n">
-        <v>5503.38</v>
+        <v>7020</v>
       </c>
       <c r="H175" s="0" t="s">
         <v>26</v>
@@ -5886,7 +5882,7 @@
         <v>35</v>
       </c>
       <c r="G176" s="6" t="n">
-        <v>5896.9</v>
+        <v>7522</v>
       </c>
       <c r="H176" s="0" t="s">
         <v>26</v>
@@ -5918,7 +5914,7 @@
         <v>40</v>
       </c>
       <c r="G177" s="6" t="n">
-        <v>6579.99</v>
+        <v>8393</v>
       </c>
       <c r="H177" s="0" t="s">
         <v>26</v>
@@ -5950,7 +5946,7 @@
         <v>45</v>
       </c>
       <c r="G178" s="6" t="n">
-        <v>7286.18</v>
+        <v>9294</v>
       </c>
       <c r="H178" s="0" t="s">
         <v>26</v>
@@ -5982,7 +5978,7 @@
         <v>50</v>
       </c>
       <c r="G179" s="6" t="n">
-        <v>8735.43</v>
+        <v>11143</v>
       </c>
       <c r="H179" s="0" t="s">
         <v>26</v>
@@ -6014,7 +6010,7 @@
         <v>55</v>
       </c>
       <c r="G180" s="6" t="n">
-        <v>11240.73</v>
+        <v>14338</v>
       </c>
       <c r="H180" s="0" t="s">
         <v>26</v>
@@ -6046,7 +6042,7 @@
         <v>60</v>
       </c>
       <c r="G181" s="6" t="n">
-        <v>12629.94</v>
+        <v>16111</v>
       </c>
       <c r="H181" s="0" t="s">
         <v>26</v>
@@ -6078,7 +6074,7 @@
         <v>65</v>
       </c>
       <c r="G182" s="6" t="n">
-        <v>19125.59</v>
+        <v>24396</v>
       </c>
       <c r="H182" s="0" t="s">
         <v>26</v>
@@ -6110,7 +6106,7 @@
         <v>99</v>
       </c>
       <c r="G183" s="6" t="n">
-        <v>28314.15</v>
+        <v>36117</v>
       </c>
       <c r="H183" s="0" t="s">
         <v>26</v>
@@ -6142,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="G184" s="6" t="n">
-        <v>9351.32</v>
+        <v>11928</v>
       </c>
       <c r="H184" s="0" t="s">
         <v>26</v>
@@ -6174,7 +6170,7 @@
         <v>5</v>
       </c>
       <c r="G185" s="6" t="n">
-        <v>6448.06</v>
+        <v>8225</v>
       </c>
       <c r="H185" s="0" t="s">
         <v>26</v>
@@ -6206,7 +6202,7 @@
         <v>15</v>
       </c>
       <c r="G186" s="6" t="n">
-        <v>6206</v>
+        <v>7916</v>
       </c>
       <c r="H186" s="0" t="s">
         <v>26</v>
@@ -6238,7 +6234,7 @@
         <v>20</v>
       </c>
       <c r="G187" s="6" t="n">
-        <v>5906.11</v>
+        <v>7534</v>
       </c>
       <c r="H187" s="0" t="s">
         <v>26</v>
@@ -6270,7 +6266,7 @@
         <v>25</v>
       </c>
       <c r="G188" s="6" t="n">
-        <v>10631.59</v>
+        <v>13561</v>
       </c>
       <c r="H188" s="0" t="s">
         <v>26</v>
@@ -6302,7 +6298,7 @@
         <v>30</v>
       </c>
       <c r="G189" s="6" t="n">
-        <v>12186.03</v>
+        <v>15544</v>
       </c>
       <c r="H189" s="0" t="s">
         <v>26</v>
@@ -6334,7 +6330,7 @@
         <v>35</v>
       </c>
       <c r="G190" s="6" t="n">
-        <v>11540.96</v>
+        <v>14721</v>
       </c>
       <c r="H190" s="0" t="s">
         <v>26</v>
@@ -6366,7 +6362,7 @@
         <v>40</v>
       </c>
       <c r="G191" s="6" t="n">
-        <v>9715.75</v>
+        <v>12393</v>
       </c>
       <c r="H191" s="0" t="s">
         <v>26</v>
@@ -6398,7 +6394,7 @@
         <v>45</v>
       </c>
       <c r="G192" s="6" t="n">
-        <v>9695.14</v>
+        <v>12367</v>
       </c>
       <c r="H192" s="0" t="s">
         <v>26</v>
@@ -6430,7 +6426,7 @@
         <v>50</v>
       </c>
       <c r="G193" s="6" t="n">
-        <v>11204.34</v>
+        <v>14292</v>
       </c>
       <c r="H193" s="0" t="s">
         <v>26</v>
@@ -6462,7 +6458,7 @@
         <v>55</v>
       </c>
       <c r="G194" s="6" t="n">
-        <v>12865.22</v>
+        <v>16411</v>
       </c>
       <c r="H194" s="0" t="s">
         <v>26</v>
@@ -6494,7 +6490,7 @@
         <v>60</v>
       </c>
       <c r="G195" s="6" t="n">
-        <v>14638.23</v>
+        <v>18672</v>
       </c>
       <c r="H195" s="0" t="s">
         <v>26</v>
@@ -6526,7 +6522,7 @@
         <v>65</v>
       </c>
       <c r="G196" s="6" t="n">
-        <v>23270.01</v>
+        <v>29683</v>
       </c>
       <c r="H196" s="0" t="s">
         <v>26</v>
@@ -6558,7 +6554,7 @@
         <v>99</v>
       </c>
       <c r="G197" s="6" t="n">
-        <v>28155.08</v>
+        <v>35914</v>
       </c>
       <c r="H197" s="0" t="s">
         <v>26</v>
@@ -6590,7 +6586,7 @@
         <v>1</v>
       </c>
       <c r="G198" s="6" t="n">
-        <v>7137.88</v>
+        <v>9105</v>
       </c>
       <c r="H198" s="0" t="s">
         <v>26</v>
@@ -6622,7 +6618,7 @@
         <v>5</v>
       </c>
       <c r="G199" s="6" t="n">
-        <v>4957.37</v>
+        <v>6324</v>
       </c>
       <c r="H199" s="0" t="s">
         <v>26</v>
@@ -6654,7 +6650,7 @@
         <v>15</v>
       </c>
       <c r="G200" s="6" t="n">
-        <v>4744.44</v>
+        <v>6052</v>
       </c>
       <c r="H200" s="0" t="s">
         <v>26</v>
@@ -6686,7 +6682,7 @@
         <v>20</v>
       </c>
       <c r="G201" s="6" t="n">
-        <v>3895.57</v>
+        <v>4969</v>
       </c>
       <c r="H201" s="0" t="s">
         <v>26</v>
@@ -6718,7 +6714,7 @@
         <v>25</v>
       </c>
       <c r="G202" s="6" t="n">
-        <v>3848.19</v>
+        <v>4909</v>
       </c>
       <c r="H202" s="0" t="s">
         <v>26</v>
@@ -6750,7 +6746,7 @@
         <v>30</v>
       </c>
       <c r="G203" s="6" t="n">
-        <v>4233.41</v>
+        <v>5400</v>
       </c>
       <c r="H203" s="0" t="s">
         <v>26</v>
@@ -6782,7 +6778,7 @@
         <v>35</v>
       </c>
       <c r="G204" s="6" t="n">
-        <v>4544.45</v>
+        <v>5797</v>
       </c>
       <c r="H204" s="0" t="s">
         <v>26</v>
@@ -6814,7 +6810,7 @@
         <v>40</v>
       </c>
       <c r="G205" s="6" t="n">
-        <v>5061.52</v>
+        <v>6456</v>
       </c>
       <c r="H205" s="0" t="s">
         <v>26</v>
@@ -6846,7 +6842,7 @@
         <v>45</v>
       </c>
       <c r="G206" s="6" t="n">
-        <v>5599.09</v>
+        <v>7142</v>
       </c>
       <c r="H206" s="0" t="s">
         <v>26</v>
@@ -6878,7 +6874,7 @@
         <v>50</v>
       </c>
       <c r="G207" s="6" t="n">
-        <v>6698.67</v>
+        <v>8545</v>
       </c>
       <c r="H207" s="0" t="s">
         <v>26</v>
@@ -6910,7 +6906,7 @@
         <v>55</v>
       </c>
       <c r="G208" s="6" t="n">
-        <v>8608.17</v>
+        <v>10980</v>
       </c>
       <c r="H208" s="0" t="s">
         <v>26</v>
@@ -6942,7 +6938,7 @@
         <v>60</v>
       </c>
       <c r="G209" s="6" t="n">
-        <v>9657.9</v>
+        <v>12319</v>
       </c>
       <c r="H209" s="0" t="s">
         <v>26</v>
@@ -6974,7 +6970,7 @@
         <v>65</v>
       </c>
       <c r="G210" s="6" t="n">
-        <v>14606.5</v>
+        <v>18632</v>
       </c>
       <c r="H210" s="0" t="s">
         <v>26</v>
@@ -7006,7 +7002,7 @@
         <v>99</v>
       </c>
       <c r="G211" s="6" t="n">
-        <v>21625.52</v>
+        <v>27585</v>
       </c>
       <c r="H211" s="0" t="s">
         <v>26</v>
@@ -7038,7 +7034,7 @@
         <v>1</v>
       </c>
       <c r="G212" s="6" t="n">
-        <v>7137.88</v>
+        <v>9105</v>
       </c>
       <c r="H212" s="0" t="s">
         <v>26</v>
@@ -7070,7 +7066,7 @@
         <v>5</v>
       </c>
       <c r="G213" s="6" t="n">
-        <v>4957.37</v>
+        <v>6324</v>
       </c>
       <c r="H213" s="0" t="s">
         <v>26</v>
@@ -7102,7 +7098,7 @@
         <v>15</v>
       </c>
       <c r="G214" s="6" t="n">
-        <v>4744.44</v>
+        <v>6052</v>
       </c>
       <c r="H214" s="0" t="s">
         <v>26</v>
@@ -7134,7 +7130,7 @@
         <v>20</v>
       </c>
       <c r="G215" s="6" t="n">
-        <v>4526.92</v>
+        <v>5774</v>
       </c>
       <c r="H215" s="0" t="s">
         <v>26</v>
@@ -7166,7 +7162,7 @@
         <v>25</v>
       </c>
       <c r="G216" s="6" t="n">
-        <v>8157.56</v>
+        <v>10406</v>
       </c>
       <c r="H216" s="0" t="s">
         <v>26</v>
@@ -7198,7 +7194,7 @@
         <v>30</v>
       </c>
       <c r="G217" s="6" t="n">
-        <v>9308.75</v>
+        <v>11874</v>
       </c>
       <c r="H217" s="0" t="s">
         <v>26</v>
@@ -7230,7 +7226,7 @@
         <v>35</v>
       </c>
       <c r="G218" s="6" t="n">
-        <v>8781.21</v>
+        <v>11201</v>
       </c>
       <c r="H218" s="0" t="s">
         <v>26</v>
@@ -7262,7 +7258,7 @@
         <v>40</v>
       </c>
       <c r="G219" s="6" t="n">
-        <v>7437.32</v>
+        <v>9487</v>
       </c>
       <c r="H219" s="0" t="s">
         <v>26</v>
@@ -7294,7 +7290,7 @@
         <v>45</v>
       </c>
       <c r="G220" s="6" t="n">
-        <v>7445.88</v>
+        <v>9498</v>
       </c>
       <c r="H220" s="0" t="s">
         <v>26</v>
@@ -7326,7 +7322,7 @@
         <v>50</v>
       </c>
       <c r="G221" s="6" t="n">
-        <v>8634.52</v>
+        <v>11014</v>
       </c>
       <c r="H221" s="0" t="s">
         <v>26</v>
@@ -7358,7 +7354,7 @@
         <v>55</v>
       </c>
       <c r="G222" s="6" t="n">
-        <v>9920.85</v>
+        <v>12655</v>
       </c>
       <c r="H222" s="0" t="s">
         <v>26</v>
@@ -7390,7 +7386,7 @@
         <v>60</v>
       </c>
       <c r="G223" s="6" t="n">
-        <v>11265.95</v>
+        <v>14371</v>
       </c>
       <c r="H223" s="0" t="s">
         <v>26</v>
@@ -7422,7 +7418,7 @@
         <v>65</v>
       </c>
       <c r="G224" s="6" t="n">
-        <v>17912.15</v>
+        <v>22848</v>
       </c>
       <c r="H224" s="0" t="s">
         <v>26</v>
@@ -7454,7 +7450,7 @@
         <v>99</v>
       </c>
       <c r="G225" s="6" t="n">
-        <v>21503.34</v>
+        <v>27429</v>
       </c>
       <c r="H225" s="0" t="s">
         <v>26</v>
@@ -7486,7 +7482,7 @@
         <v>1</v>
       </c>
       <c r="G226" s="6" t="n">
-        <v>5508.91</v>
+        <v>7027</v>
       </c>
       <c r="H226" s="0" t="s">
         <v>26</v>
@@ -7518,7 +7514,7 @@
         <v>5</v>
       </c>
       <c r="G227" s="6" t="n">
-        <v>3815.73</v>
+        <v>4867</v>
       </c>
       <c r="H227" s="0" t="s">
         <v>26</v>
@@ -7550,7 +7546,7 @@
         <v>15</v>
       </c>
       <c r="G228" s="6" t="n">
-        <v>3624.92</v>
+        <v>4624</v>
       </c>
       <c r="H228" s="0" t="s">
         <v>26</v>
@@ -7582,7 +7578,7 @@
         <v>20</v>
       </c>
       <c r="G229" s="6" t="n">
-        <v>2980.26</v>
+        <v>3802</v>
       </c>
       <c r="H229" s="0" t="s">
         <v>26</v>
@@ -7614,7 +7610,7 @@
         <v>25</v>
       </c>
       <c r="G230" s="6" t="n">
-        <v>2919.05</v>
+        <v>3723</v>
       </c>
       <c r="H230" s="0" t="s">
         <v>26</v>
@@ -7646,7 +7642,7 @@
         <v>30</v>
       </c>
       <c r="G231" s="6" t="n">
-        <v>3205.73</v>
+        <v>4089</v>
       </c>
       <c r="H231" s="0" t="s">
         <v>26</v>
@@ -7678,7 +7674,7 @@
         <v>35</v>
       </c>
       <c r="G232" s="6" t="n">
-        <v>3433.72</v>
+        <v>4380</v>
       </c>
       <c r="H232" s="0" t="s">
         <v>26</v>
@@ -7710,7 +7706,7 @@
         <v>40</v>
       </c>
       <c r="G233" s="6" t="n">
-        <v>3831.01</v>
+        <v>4887</v>
       </c>
       <c r="H233" s="0" t="s">
         <v>26</v>
@@ -7742,7 +7738,7 @@
         <v>45</v>
       </c>
       <c r="G234" s="6" t="n">
-        <v>4241.69</v>
+        <v>5411</v>
       </c>
       <c r="H234" s="0" t="s">
         <v>26</v>
@@ -7774,7 +7770,7 @@
         <v>50</v>
       </c>
       <c r="G235" s="6" t="n">
-        <v>5084.54</v>
+        <v>6486</v>
       </c>
       <c r="H235" s="0" t="s">
         <v>26</v>
@@ -7806,7 +7802,7 @@
         <v>55</v>
       </c>
       <c r="G236" s="6" t="n">
-        <v>6541.3</v>
+        <v>8344</v>
       </c>
       <c r="H236" s="0" t="s">
         <v>26</v>
@@ -7838,7 +7834,7 @@
         <v>60</v>
       </c>
       <c r="G237" s="6" t="n">
-        <v>7356.05</v>
+        <v>9383</v>
       </c>
       <c r="H237" s="0" t="s">
         <v>26</v>
@@ -7870,7 +7866,7 @@
         <v>65</v>
       </c>
       <c r="G238" s="6" t="n">
-        <v>11125.67</v>
+        <v>14192</v>
       </c>
       <c r="H238" s="0" t="s">
         <v>26</v>
@@ -7902,7 +7898,7 @@
         <v>99</v>
       </c>
       <c r="G239" s="6" t="n">
-        <v>16466.91</v>
+        <v>21005</v>
       </c>
       <c r="H239" s="0" t="s">
         <v>26</v>
@@ -7934,7 +7930,7 @@
         <v>1</v>
       </c>
       <c r="G240" s="6" t="n">
-        <v>5508.91</v>
+        <v>7027</v>
       </c>
       <c r="H240" s="0" t="s">
         <v>26</v>
@@ -7966,7 +7962,7 @@
         <v>5</v>
       </c>
       <c r="G241" s="6" t="n">
-        <v>3815.73</v>
+        <v>4867</v>
       </c>
       <c r="H241" s="0" t="s">
         <v>26</v>
@@ -7998,7 +7994,7 @@
         <v>15</v>
       </c>
       <c r="G242" s="6" t="n">
-        <v>3624.92</v>
+        <v>4624</v>
       </c>
       <c r="H242" s="0" t="s">
         <v>26</v>
@@ -8030,7 +8026,7 @@
         <v>20</v>
       </c>
       <c r="G243" s="6" t="n">
-        <v>3449.28</v>
+        <v>4400</v>
       </c>
       <c r="H243" s="0" t="s">
         <v>26</v>
@@ -8062,7 +8058,7 @@
         <v>25</v>
       </c>
       <c r="G244" s="6" t="n">
-        <v>6111.34</v>
+        <v>7796</v>
       </c>
       <c r="H244" s="0" t="s">
         <v>26</v>
@@ -8094,7 +8090,7 @@
         <v>30</v>
       </c>
       <c r="G245" s="6" t="n">
-        <v>7007.25</v>
+        <v>8938</v>
       </c>
       <c r="H245" s="0" t="s">
         <v>26</v>
@@ -8126,7 +8122,7 @@
         <v>35</v>
       </c>
       <c r="G246" s="6" t="n">
-        <v>6637.72</v>
+        <v>8467</v>
       </c>
       <c r="H246" s="0" t="s">
         <v>26</v>
@@ -8158,7 +8154,7 @@
         <v>40</v>
       </c>
       <c r="G247" s="6" t="n">
-        <v>5587.53</v>
+        <v>7127</v>
       </c>
       <c r="H247" s="0" t="s">
         <v>26</v>
@@ -8190,7 +8186,7 @@
         <v>45</v>
       </c>
       <c r="G248" s="6" t="n">
-        <v>5575.17</v>
+        <v>7112</v>
       </c>
       <c r="H248" s="0" t="s">
         <v>26</v>
@@ -8222,7 +8218,7 @@
         <v>50</v>
       </c>
       <c r="G249" s="6" t="n">
-        <v>6478.57</v>
+        <v>8264</v>
       </c>
       <c r="H249" s="0" t="s">
         <v>26</v>
@@ -8254,7 +8250,7 @@
         <v>55</v>
       </c>
       <c r="G250" s="6" t="n">
-        <v>7394.55</v>
+        <v>9432</v>
       </c>
       <c r="H250" s="0" t="s">
         <v>26</v>
@@ -8286,7 +8282,7 @@
         <v>60</v>
       </c>
       <c r="G251" s="6" t="n">
-        <v>8414.89</v>
+        <v>10734</v>
       </c>
       <c r="H251" s="0" t="s">
         <v>26</v>
@@ -8318,7 +8314,7 @@
         <v>65</v>
       </c>
       <c r="G252" s="6" t="n">
-        <v>13371.51</v>
+        <v>17056</v>
       </c>
       <c r="H252" s="0" t="s">
         <v>26</v>
@@ -8350,7 +8346,7 @@
         <v>99</v>
       </c>
       <c r="G253" s="6" t="n">
-        <v>16184.26</v>
+        <v>20644</v>
       </c>
       <c r="H253" s="0" t="s">
         <v>26</v>
@@ -8382,7 +8378,7 @@
         <v>1</v>
       </c>
       <c r="G254" s="6" t="n">
-        <v>2972.64</v>
+        <v>4581</v>
       </c>
       <c r="H254" s="0" t="s">
         <v>26</v>
@@ -8414,7 +8410,7 @@
         <v>5</v>
       </c>
       <c r="G255" s="6" t="n">
-        <v>2084.38</v>
+        <v>3135</v>
       </c>
       <c r="H255" s="0" t="s">
         <v>26</v>
@@ -8446,7 +8442,7 @@
         <v>15</v>
       </c>
       <c r="G256" s="6" t="n">
-        <v>1927.52</v>
+        <v>2376</v>
       </c>
       <c r="H256" s="0" t="s">
         <v>26</v>
@@ -8478,7 +8474,7 @@
         <v>20</v>
       </c>
       <c r="G257" s="6" t="n">
-        <v>1585.54</v>
+        <v>2408</v>
       </c>
       <c r="H257" s="0" t="s">
         <v>26</v>
@@ -8510,7 +8506,7 @@
         <v>25</v>
       </c>
       <c r="G258" s="6" t="n">
-        <v>1530.07</v>
+        <v>2424</v>
       </c>
       <c r="H258" s="0" t="s">
         <v>26</v>
@@ -8542,7 +8538,7 @@
         <v>30</v>
       </c>
       <c r="G259" s="6" t="n">
-        <v>1680.79</v>
+        <v>2616</v>
       </c>
       <c r="H259" s="0" t="s">
         <v>26</v>
@@ -8574,7 +8570,7 @@
         <v>35</v>
       </c>
       <c r="G260" s="6" t="n">
-        <v>1801.26</v>
+        <v>2831</v>
       </c>
       <c r="H260" s="0" t="s">
         <v>26</v>
@@ -8606,7 +8602,7 @@
         <v>40</v>
       </c>
       <c r="G261" s="6" t="n">
-        <v>2006.83</v>
+        <v>3150</v>
       </c>
       <c r="H261" s="0" t="s">
         <v>26</v>
@@ -8638,7 +8634,7 @@
         <v>45</v>
       </c>
       <c r="G262" s="6" t="n">
-        <v>2221.05</v>
+        <v>3567</v>
       </c>
       <c r="H262" s="0" t="s">
         <v>26</v>
@@ -8670,7 +8666,7 @@
         <v>50</v>
       </c>
       <c r="G263" s="6" t="n">
-        <v>2657.96</v>
+        <v>4244</v>
       </c>
       <c r="H263" s="0" t="s">
         <v>26</v>
@@ -8702,7 +8698,7 @@
         <v>55</v>
       </c>
       <c r="G264" s="6" t="n">
-        <v>3414.09</v>
+        <v>5040</v>
       </c>
       <c r="H264" s="0" t="s">
         <v>26</v>
@@ -8734,7 +8730,7 @@
         <v>60</v>
       </c>
       <c r="G265" s="6" t="n">
-        <v>3835.79</v>
+        <v>5858</v>
       </c>
       <c r="H265" s="0" t="s">
         <v>26</v>
@@ -8766,7 +8762,7 @@
         <v>65</v>
       </c>
       <c r="G266" s="6" t="n">
-        <v>5793.54</v>
+        <v>8770</v>
       </c>
       <c r="H266" s="0" t="s">
         <v>26</v>
@@ -8798,7 +8794,7 @@
         <v>99</v>
       </c>
       <c r="G267" s="6" t="n">
-        <v>8573.99</v>
+        <v>11868</v>
       </c>
       <c r="H267" s="0" t="s">
         <v>26</v>
@@ -8830,7 +8826,7 @@
         <v>1</v>
       </c>
       <c r="G268" s="6" t="n">
-        <v>2972.64</v>
+        <v>4581</v>
       </c>
       <c r="H268" s="0" t="s">
         <v>26</v>
@@ -8862,7 +8858,7 @@
         <v>5</v>
       </c>
       <c r="G269" s="6" t="n">
-        <v>2084.38</v>
+        <v>3135</v>
       </c>
       <c r="H269" s="0" t="s">
         <v>26</v>
@@ -8894,7 +8890,7 @@
         <v>15</v>
       </c>
       <c r="G270" s="6" t="n">
-        <v>1927.52</v>
+        <v>2376</v>
       </c>
       <c r="H270" s="0" t="s">
         <v>26</v>
@@ -8926,7 +8922,7 @@
         <v>20</v>
       </c>
       <c r="G271" s="6" t="n">
-        <v>1836.74</v>
+        <v>2779</v>
       </c>
       <c r="H271" s="0" t="s">
         <v>26</v>
@@ -8958,7 +8954,7 @@
         <v>25</v>
       </c>
       <c r="G272" s="6" t="n">
-        <v>3250.33</v>
+        <v>5174</v>
       </c>
       <c r="H272" s="0" t="s">
         <v>26</v>
@@ -8990,7 +8986,7 @@
         <v>30</v>
       </c>
       <c r="G273" s="6" t="n">
-        <v>3717.32</v>
+        <v>5899</v>
       </c>
       <c r="H273" s="0" t="s">
         <v>26</v>
@@ -9022,7 +9018,7 @@
         <v>35</v>
       </c>
       <c r="G274" s="6" t="n">
-        <v>3514.83</v>
+        <v>5592</v>
       </c>
       <c r="H274" s="0" t="s">
         <v>26</v>
@@ -9054,7 +9050,7 @@
         <v>40</v>
       </c>
       <c r="G275" s="6" t="n">
-        <v>2968.91</v>
+        <v>4763</v>
       </c>
       <c r="H275" s="0" t="s">
         <v>26</v>
@@ -9086,7 +9082,7 @@
         <v>45</v>
       </c>
       <c r="G276" s="6" t="n">
-        <v>2967.18</v>
+        <v>4755</v>
       </c>
       <c r="H276" s="0" t="s">
         <v>26</v>
@@ -9118,7 +9114,7 @@
         <v>50</v>
       </c>
       <c r="G277" s="6" t="n">
-        <v>3432.49</v>
+        <v>5518</v>
       </c>
       <c r="H277" s="0" t="s">
         <v>26</v>
@@ -9150,7 +9146,7 @@
         <v>55</v>
       </c>
       <c r="G278" s="6" t="n">
-        <v>3941.19</v>
+        <v>5991</v>
       </c>
       <c r="H278" s="0" t="s">
         <v>26</v>
@@ -9182,7 +9178,7 @@
         <v>60</v>
       </c>
       <c r="G279" s="6" t="n">
-        <v>4479.27</v>
+        <v>6886</v>
       </c>
       <c r="H279" s="0" t="s">
         <v>26</v>
@@ -9214,7 +9210,7 @@
         <v>65</v>
       </c>
       <c r="G280" s="6" t="n">
-        <v>7113.14</v>
+        <v>11081</v>
       </c>
       <c r="H280" s="0" t="s">
         <v>26</v>
@@ -9246,7 +9242,7 @@
         <v>99</v>
       </c>
       <c r="G281" s="6" t="n">
-        <v>8573.99</v>
+        <v>11868</v>
       </c>
       <c r="H281" s="0" t="s">
         <v>26</v>
@@ -9278,7 +9274,7 @@
         <v>1</v>
       </c>
       <c r="G282" s="6" t="n">
-        <v>9961.39</v>
+        <v>12707</v>
       </c>
       <c r="H282" s="0" t="s">
         <v>27</v>
@@ -9310,7 +9306,7 @@
         <v>5</v>
       </c>
       <c r="G283" s="6" t="n">
-        <v>6902.23</v>
+        <v>8804</v>
       </c>
       <c r="H283" s="0" t="s">
         <v>27</v>
@@ -9342,7 +9338,7 @@
         <v>15</v>
       </c>
       <c r="G284" s="6" t="n">
-        <v>6657.1</v>
+        <v>8492</v>
       </c>
       <c r="H284" s="0" t="s">
         <v>27</v>
@@ -9374,7 +9370,7 @@
         <v>20</v>
       </c>
       <c r="G285" s="6" t="n">
-        <v>5654.49</v>
+        <v>7213</v>
       </c>
       <c r="H285" s="0" t="s">
         <v>27</v>
@@ -9406,7 +9402,7 @@
         <v>25</v>
       </c>
       <c r="G286" s="6" t="n">
-        <v>5271.76</v>
+        <v>6725</v>
       </c>
       <c r="H286" s="0" t="s">
         <v>27</v>
@@ -9438,7 +9434,7 @@
         <v>30</v>
       </c>
       <c r="G287" s="6" t="n">
-        <v>5801.23</v>
+        <v>7400</v>
       </c>
       <c r="H287" s="0" t="s">
         <v>27</v>
@@ -9470,7 +9466,7 @@
         <v>35</v>
       </c>
       <c r="G288" s="6" t="n">
-        <v>6229.6</v>
+        <v>7946</v>
       </c>
       <c r="H288" s="0" t="s">
         <v>27</v>
@@ -9502,7 +9498,7 @@
         <v>40</v>
       </c>
       <c r="G289" s="6" t="n">
-        <v>6938.09</v>
+        <v>8850</v>
       </c>
       <c r="H289" s="0" t="s">
         <v>27</v>
@@ -9534,7 +9530,7 @@
         <v>45</v>
       </c>
       <c r="G290" s="6" t="n">
-        <v>7681.77</v>
+        <v>9799</v>
       </c>
       <c r="H290" s="0" t="s">
         <v>27</v>
@@ -9566,7 +9562,7 @@
         <v>50</v>
       </c>
       <c r="G291" s="6" t="n">
-        <v>9150.68</v>
+        <v>11672</v>
       </c>
       <c r="H291" s="0" t="s">
         <v>27</v>
@@ -9598,7 +9594,7 @@
         <v>55</v>
       </c>
       <c r="G292" s="6" t="n">
-        <v>11803.5</v>
+        <v>15056</v>
       </c>
       <c r="H292" s="0" t="s">
         <v>27</v>
@@ -9630,7 +9626,7 @@
         <v>60</v>
       </c>
       <c r="G293" s="6" t="n">
-        <v>13251.82</v>
+        <v>16904</v>
       </c>
       <c r="H293" s="0" t="s">
         <v>27</v>
@@ -9662,7 +9658,7 @@
         <v>65</v>
       </c>
       <c r="G294" s="6" t="n">
-        <v>20035.24</v>
+        <v>25557</v>
       </c>
       <c r="H294" s="0" t="s">
         <v>27</v>
@@ -9694,7 +9690,7 @@
         <v>99</v>
       </c>
       <c r="G295" s="6" t="n">
-        <v>29684.31</v>
+        <v>37865</v>
       </c>
       <c r="H295" s="0" t="s">
         <v>27</v>
@@ -9726,7 +9722,7 @@
         <v>1</v>
       </c>
       <c r="G296" s="6" t="n">
-        <v>9961.39</v>
+        <v>12707</v>
       </c>
       <c r="H296" s="0" t="s">
         <v>27</v>
@@ -9758,7 +9754,7 @@
         <v>5</v>
       </c>
       <c r="G297" s="6" t="n">
-        <v>6902.23</v>
+        <v>8804</v>
       </c>
       <c r="H297" s="0" t="s">
         <v>27</v>
@@ -9790,7 +9786,7 @@
         <v>15</v>
       </c>
       <c r="G298" s="6" t="n">
-        <v>6657.1</v>
+        <v>8492</v>
       </c>
       <c r="H298" s="0" t="s">
         <v>27</v>
@@ -9822,7 +9818,7 @@
         <v>20</v>
       </c>
       <c r="G299" s="6" t="n">
-        <v>6353.51</v>
+        <v>8104</v>
       </c>
       <c r="H299" s="0" t="s">
         <v>27</v>
@@ -9854,7 +9850,7 @@
         <v>25</v>
       </c>
       <c r="G300" s="6" t="n">
-        <v>11254.21</v>
+        <v>14356</v>
       </c>
       <c r="H300" s="0" t="s">
         <v>27</v>
@@ -9886,7 +9882,7 @@
         <v>30</v>
       </c>
       <c r="G301" s="6" t="n">
-        <v>12839.95</v>
+        <v>16378</v>
       </c>
       <c r="H301" s="0" t="s">
         <v>27</v>
@@ -9918,7 +9914,7 @@
         <v>35</v>
       </c>
       <c r="G302" s="6" t="n">
-        <v>12103.81</v>
+        <v>15439</v>
       </c>
       <c r="H302" s="0" t="s">
         <v>27</v>
@@ -9950,7 +9946,7 @@
         <v>40</v>
       </c>
       <c r="G303" s="6" t="n">
-        <v>10259.15</v>
+        <v>13086</v>
       </c>
       <c r="H303" s="0" t="s">
         <v>27</v>
@@ -9982,7 +9978,7 @@
         <v>45</v>
       </c>
       <c r="G304" s="6" t="n">
-        <v>10276.86</v>
+        <v>13109</v>
       </c>
       <c r="H304" s="0" t="s">
         <v>27</v>
@@ -10014,7 +10010,7 @@
         <v>50</v>
       </c>
       <c r="G305" s="6" t="n">
-        <v>11926</v>
+        <v>15213</v>
       </c>
       <c r="H305" s="0" t="s">
         <v>27</v>
@@ -10046,7 +10042,7 @@
         <v>55</v>
       </c>
       <c r="G306" s="6" t="n">
-        <v>13704.57</v>
+        <v>17481</v>
       </c>
       <c r="H306" s="0" t="s">
         <v>27</v>
@@ -10078,7 +10074,7 @@
         <v>60</v>
       </c>
       <c r="G307" s="6" t="n">
-        <v>15563.76</v>
+        <v>19853</v>
       </c>
       <c r="H307" s="0" t="s">
         <v>27</v>
@@ -10110,7 +10106,7 @@
         <v>65</v>
       </c>
       <c r="G308" s="6" t="n">
-        <v>24751.86</v>
+        <v>31573</v>
       </c>
       <c r="H308" s="0" t="s">
         <v>27</v>
@@ -10142,7 +10138,7 @@
         <v>99</v>
       </c>
       <c r="G309" s="6" t="n">
-        <v>29684.31</v>
+        <v>37865</v>
       </c>
       <c r="H309" s="0" t="s">
         <v>27</v>
@@ -10174,7 +10170,7 @@
         <v>1</v>
       </c>
       <c r="G310" s="6" t="n">
-        <v>8883.75</v>
+        <v>11332</v>
       </c>
       <c r="H310" s="0" t="s">
         <v>27</v>
@@ -10206,7 +10202,7 @@
         <v>5</v>
       </c>
       <c r="G311" s="6" t="n">
-        <v>6125.66</v>
+        <v>7814</v>
       </c>
       <c r="H311" s="0" t="s">
         <v>27</v>
@@ -10238,7 +10234,7 @@
         <v>15</v>
       </c>
       <c r="G312" s="6" t="n">
-        <v>5895.7</v>
+        <v>7520</v>
       </c>
       <c r="H312" s="0" t="s">
         <v>27</v>
@@ -10270,7 +10266,7 @@
         <v>20</v>
       </c>
       <c r="G313" s="6" t="n">
-        <v>4844.55</v>
+        <v>6180</v>
       </c>
       <c r="H313" s="0" t="s">
         <v>27</v>
@@ -10302,7 +10298,7 @@
         <v>25</v>
       </c>
       <c r="G314" s="6" t="n">
-        <v>4759.05</v>
+        <v>6071</v>
       </c>
       <c r="H314" s="0" t="s">
         <v>27</v>
@@ -10334,7 +10330,7 @@
         <v>30</v>
       </c>
       <c r="G315" s="6" t="n">
-        <v>5228.21</v>
+        <v>6669</v>
       </c>
       <c r="H315" s="0" t="s">
         <v>27</v>
@@ -10366,7 +10362,7 @@
         <v>35</v>
       </c>
       <c r="G316" s="6" t="n">
-        <v>5602.06</v>
+        <v>7146</v>
       </c>
       <c r="H316" s="0" t="s">
         <v>27</v>
@@ -10398,7 +10394,7 @@
         <v>40</v>
       </c>
       <c r="G317" s="6" t="n">
-        <v>6250.99</v>
+        <v>7974</v>
       </c>
       <c r="H317" s="0" t="s">
         <v>27</v>
@@ -10430,7 +10426,7 @@
         <v>45</v>
       </c>
       <c r="G318" s="6" t="n">
-        <v>6921.87</v>
+        <v>8829</v>
       </c>
       <c r="H318" s="0" t="s">
         <v>27</v>
@@ -10462,7 +10458,7 @@
         <v>50</v>
       </c>
       <c r="G319" s="6" t="n">
-        <v>8298.66</v>
+        <v>10586</v>
       </c>
       <c r="H319" s="0" t="s">
         <v>27</v>
@@ -10494,7 +10490,7 @@
         <v>55</v>
       </c>
       <c r="G320" s="6" t="n">
-        <v>10678.69</v>
+        <v>13622</v>
       </c>
       <c r="H320" s="0" t="s">
         <v>27</v>
@@ -10526,7 +10522,7 @@
         <v>60</v>
       </c>
       <c r="G321" s="6" t="n">
-        <v>11998.44</v>
+        <v>15305</v>
       </c>
       <c r="H321" s="0" t="s">
         <v>27</v>
@@ -10558,7 +10554,7 @@
         <v>65</v>
       </c>
       <c r="G322" s="6" t="n">
-        <v>18169.31</v>
+        <v>23176</v>
       </c>
       <c r="H322" s="0" t="s">
         <v>27</v>
@@ -10590,7 +10586,7 @@
         <v>99</v>
       </c>
       <c r="G323" s="6" t="n">
-        <v>26898.44</v>
+        <v>34311</v>
       </c>
       <c r="H323" s="0" t="s">
         <v>27</v>
@@ -10622,7 +10618,7 @@
         <v>1</v>
       </c>
       <c r="G324" s="6" t="n">
-        <v>8883.75</v>
+        <v>11332</v>
       </c>
       <c r="H324" s="0" t="s">
         <v>27</v>
@@ -10654,7 +10650,7 @@
         <v>5</v>
       </c>
       <c r="G325" s="6" t="n">
-        <v>6125.66</v>
+        <v>7814</v>
       </c>
       <c r="H325" s="0" t="s">
         <v>27</v>
@@ -10686,7 +10682,7 @@
         <v>15</v>
       </c>
       <c r="G326" s="6" t="n">
-        <v>5895.7</v>
+        <v>7520</v>
       </c>
       <c r="H326" s="0" t="s">
         <v>27</v>
@@ -10718,7 +10714,7 @@
         <v>20</v>
       </c>
       <c r="G327" s="6" t="n">
-        <v>5610.8</v>
+        <v>7157</v>
       </c>
       <c r="H327" s="0" t="s">
         <v>27</v>
@@ -10750,7 +10746,7 @@
         <v>25</v>
       </c>
       <c r="G328" s="6" t="n">
-        <v>10100.01</v>
+        <v>12883</v>
       </c>
       <c r="H328" s="0" t="s">
         <v>27</v>
@@ -10782,7 +10778,7 @@
         <v>30</v>
       </c>
       <c r="G329" s="6" t="n">
-        <v>11576.72</v>
+        <v>14767</v>
       </c>
       <c r="H329" s="0" t="s">
         <v>27</v>
@@ -10814,7 +10810,7 @@
         <v>35</v>
       </c>
       <c r="G330" s="6" t="n">
-        <v>10963.92</v>
+        <v>13985</v>
       </c>
       <c r="H330" s="0" t="s">
         <v>27</v>
@@ -10846,7 +10842,7 @@
         <v>40</v>
       </c>
       <c r="G331" s="6" t="n">
-        <v>9229.96</v>
+        <v>11774</v>
       </c>
       <c r="H331" s="0" t="s">
         <v>27</v>
@@ -10878,7 +10874,7 @@
         <v>45</v>
       </c>
       <c r="G332" s="6" t="n">
-        <v>9210.39</v>
+        <v>11749</v>
       </c>
       <c r="H332" s="0" t="s">
         <v>27</v>
@@ -10910,7 +10906,7 @@
         <v>50</v>
       </c>
       <c r="G333" s="6" t="n">
-        <v>10644.12</v>
+        <v>13577</v>
       </c>
       <c r="H333" s="0" t="s">
         <v>27</v>
@@ -10942,7 +10938,7 @@
         <v>55</v>
       </c>
       <c r="G334" s="6" t="n">
-        <v>12221.96</v>
+        <v>15590</v>
       </c>
       <c r="H334" s="0" t="s">
         <v>27</v>
@@ -10974,7 +10970,7 @@
         <v>60</v>
       </c>
       <c r="G335" s="6" t="n">
-        <v>13906.32</v>
+        <v>17739</v>
       </c>
       <c r="H335" s="0" t="s">
         <v>27</v>
@@ -11006,7 +11002,7 @@
         <v>65</v>
       </c>
       <c r="G336" s="6" t="n">
-        <v>22106.51</v>
+        <v>28199</v>
       </c>
       <c r="H336" s="0" t="s">
         <v>27</v>
@@ -11038,7 +11034,7 @@
         <v>99</v>
       </c>
       <c r="G337" s="6" t="n">
-        <v>26747.33</v>
+        <v>34118</v>
       </c>
       <c r="H337" s="0" t="s">
         <v>27</v>
@@ -11070,7 +11066,7 @@
         <v>1</v>
       </c>
       <c r="G338" s="6" t="n">
-        <v>6780.99</v>
+        <v>8650</v>
       </c>
       <c r="H338" s="0" t="s">
         <v>27</v>
@@ -11102,7 +11098,7 @@
         <v>5</v>
       </c>
       <c r="G339" s="6" t="n">
-        <v>4709.5</v>
+        <v>6007</v>
       </c>
       <c r="H339" s="0" t="s">
         <v>27</v>
@@ -11134,7 +11130,7 @@
         <v>15</v>
       </c>
       <c r="G340" s="6" t="n">
-        <v>4507.21</v>
+        <v>5749</v>
       </c>
       <c r="H340" s="0" t="s">
         <v>27</v>
@@ -11166,7 +11162,7 @@
         <v>20</v>
       </c>
       <c r="G341" s="6" t="n">
-        <v>3700.79</v>
+        <v>4721</v>
       </c>
       <c r="H341" s="0" t="s">
         <v>27</v>
@@ -11198,7 +11194,7 @@
         <v>25</v>
       </c>
       <c r="G342" s="6" t="n">
-        <v>3655.78</v>
+        <v>4663</v>
       </c>
       <c r="H342" s="0" t="s">
         <v>27</v>
@@ -11230,7 +11226,7 @@
         <v>30</v>
       </c>
       <c r="G343" s="6" t="n">
-        <v>4021.74</v>
+        <v>5130</v>
       </c>
       <c r="H343" s="0" t="s">
         <v>27</v>
@@ -11262,7 +11258,7 @@
         <v>35</v>
       </c>
       <c r="G344" s="6" t="n">
-        <v>4317.22</v>
+        <v>5507</v>
       </c>
       <c r="H344" s="0" t="s">
         <v>27</v>
@@ -11294,7 +11290,7 @@
         <v>40</v>
       </c>
       <c r="G345" s="6" t="n">
-        <v>4808.44</v>
+        <v>6134</v>
       </c>
       <c r="H345" s="0" t="s">
         <v>27</v>
@@ -11326,7 +11322,7 @@
         <v>45</v>
       </c>
       <c r="G346" s="6" t="n">
-        <v>5319.14</v>
+        <v>6785</v>
       </c>
       <c r="H346" s="0" t="s">
         <v>27</v>
@@ -11358,7 +11354,7 @@
         <v>50</v>
       </c>
       <c r="G347" s="6" t="n">
-        <v>6363.74</v>
+        <v>8117</v>
       </c>
       <c r="H347" s="0" t="s">
         <v>27</v>
@@ -11390,7 +11386,7 @@
         <v>55</v>
       </c>
       <c r="G348" s="6" t="n">
-        <v>8177.76</v>
+        <v>10431</v>
       </c>
       <c r="H348" s="0" t="s">
         <v>27</v>
@@ -11422,7 +11418,7 @@
         <v>60</v>
       </c>
       <c r="G349" s="6" t="n">
-        <v>9175</v>
+        <v>11703</v>
       </c>
       <c r="H349" s="0" t="s">
         <v>27</v>
@@ -11454,7 +11450,7 @@
         <v>65</v>
       </c>
       <c r="G350" s="6" t="n">
-        <v>13876.17</v>
+        <v>17700</v>
       </c>
       <c r="H350" s="0" t="s">
         <v>27</v>
@@ -11486,7 +11482,7 @@
         <v>99</v>
       </c>
       <c r="G351" s="6" t="n">
-        <v>20544.24</v>
+        <v>26206</v>
       </c>
       <c r="H351" s="0" t="s">
         <v>27</v>
@@ -11518,7 +11514,7 @@
         <v>1</v>
       </c>
       <c r="G352" s="6" t="n">
-        <v>6780.99</v>
+        <v>8650</v>
       </c>
       <c r="H352" s="0" t="s">
         <v>27</v>
@@ -11550,7 +11546,7 @@
         <v>5</v>
       </c>
       <c r="G353" s="6" t="n">
-        <v>4709.5</v>
+        <v>6007</v>
       </c>
       <c r="H353" s="0" t="s">
         <v>27</v>
@@ -11582,7 +11578,7 @@
         <v>15</v>
       </c>
       <c r="G354" s="6" t="n">
-        <v>4507.21</v>
+        <v>5749</v>
       </c>
       <c r="H354" s="0" t="s">
         <v>27</v>
@@ -11614,7 +11610,7 @@
         <v>20</v>
       </c>
       <c r="G355" s="6" t="n">
-        <v>4300.57</v>
+        <v>5486</v>
       </c>
       <c r="H355" s="0" t="s">
         <v>27</v>
@@ -11646,7 +11642,7 @@
         <v>25</v>
       </c>
       <c r="G356" s="6" t="n">
-        <v>7749.68</v>
+        <v>9885</v>
       </c>
       <c r="H356" s="0" t="s">
         <v>27</v>
@@ -11678,7 +11674,7 @@
         <v>30</v>
       </c>
       <c r="G357" s="6" t="n">
-        <v>8843.31</v>
+        <v>11280</v>
       </c>
       <c r="H357" s="0" t="s">
         <v>27</v>
@@ -11710,7 +11706,7 @@
         <v>35</v>
       </c>
       <c r="G358" s="6" t="n">
-        <v>8342.15</v>
+        <v>10641</v>
       </c>
       <c r="H358" s="0" t="s">
         <v>27</v>
@@ -11742,7 +11738,7 @@
         <v>40</v>
       </c>
       <c r="G359" s="6" t="n">
-        <v>7065.46</v>
+        <v>9013</v>
       </c>
       <c r="H359" s="0" t="s">
         <v>27</v>
@@ -11774,7 +11770,7 @@
         <v>45</v>
       </c>
       <c r="G360" s="6" t="n">
-        <v>7073.59</v>
+        <v>9023</v>
       </c>
       <c r="H360" s="0" t="s">
         <v>27</v>
@@ -11806,7 +11802,7 @@
         <v>50</v>
       </c>
       <c r="G361" s="6" t="n">
-        <v>8202.79</v>
+        <v>10463</v>
       </c>
       <c r="H361" s="0" t="s">
         <v>27</v>
@@ -11838,7 +11834,7 @@
         <v>55</v>
       </c>
       <c r="G362" s="6" t="n">
-        <v>9424.81</v>
+        <v>12022</v>
       </c>
       <c r="H362" s="0" t="s">
         <v>27</v>
@@ -11870,7 +11866,7 @@
         <v>60</v>
       </c>
       <c r="G363" s="6" t="n">
-        <v>10702.66</v>
+        <v>13652</v>
       </c>
       <c r="H363" s="0" t="s">
         <v>27</v>
@@ -11902,7 +11898,7 @@
         <v>65</v>
       </c>
       <c r="G364" s="6" t="n">
-        <v>17016.54</v>
+        <v>21706</v>
       </c>
       <c r="H364" s="0" t="s">
         <v>27</v>
@@ -11934,7 +11930,7 @@
         <v>99</v>
       </c>
       <c r="G365" s="6" t="n">
-        <v>20428.17</v>
+        <v>26058</v>
       </c>
       <c r="H365" s="0" t="s">
         <v>27</v>
@@ -11966,7 +11962,7 @@
         <v>1</v>
       </c>
       <c r="G366" s="6" t="n">
-        <v>5233.46</v>
+        <v>6676</v>
       </c>
       <c r="H366" s="0" t="s">
         <v>27</v>
@@ -11998,7 +11994,7 @@
         <v>5</v>
       </c>
       <c r="G367" s="6" t="n">
-        <v>3624.95</v>
+        <v>4624</v>
       </c>
       <c r="H367" s="0" t="s">
         <v>27</v>
@@ -12030,7 +12026,7 @@
         <v>15</v>
       </c>
       <c r="G368" s="6" t="n">
-        <v>3443.67</v>
+        <v>4393</v>
       </c>
       <c r="H368" s="0" t="s">
         <v>27</v>
@@ -12062,7 +12058,7 @@
         <v>20</v>
       </c>
       <c r="G369" s="6" t="n">
-        <v>2831.25</v>
+        <v>3611</v>
       </c>
       <c r="H369" s="0" t="s">
         <v>27</v>
@@ -12094,7 +12090,7 @@
         <v>25</v>
       </c>
       <c r="G370" s="6" t="n">
-        <v>2773.09</v>
+        <v>3537</v>
       </c>
       <c r="H370" s="0" t="s">
         <v>27</v>
@@ -12126,7 +12122,7 @@
         <v>30</v>
       </c>
       <c r="G371" s="6" t="n">
-        <v>3045.44</v>
+        <v>3885</v>
       </c>
       <c r="H371" s="0" t="s">
         <v>27</v>
@@ -12158,7 +12154,7 @@
         <v>35</v>
       </c>
       <c r="G372" s="6" t="n">
-        <v>3262.03</v>
+        <v>4161</v>
       </c>
       <c r="H372" s="0" t="s">
         <v>27</v>
@@ -12190,7 +12186,7 @@
         <v>40</v>
       </c>
       <c r="G373" s="6" t="n">
-        <v>3639.46</v>
+        <v>4642</v>
       </c>
       <c r="H373" s="0" t="s">
         <v>27</v>
@@ -12222,7 +12218,7 @@
         <v>45</v>
       </c>
       <c r="G374" s="6" t="n">
-        <v>4029.61</v>
+        <v>5140</v>
       </c>
       <c r="H374" s="0" t="s">
         <v>27</v>
@@ -12254,7 +12250,7 @@
         <v>50</v>
       </c>
       <c r="G375" s="6" t="n">
-        <v>4830.31</v>
+        <v>6161</v>
       </c>
       <c r="H375" s="0" t="s">
         <v>27</v>
@@ -12286,7 +12282,7 @@
         <v>55</v>
       </c>
       <c r="G376" s="6" t="n">
-        <v>6214.24</v>
+        <v>7927</v>
       </c>
       <c r="H376" s="0" t="s">
         <v>27</v>
@@ -12318,7 +12314,7 @@
         <v>60</v>
       </c>
       <c r="G377" s="6" t="n">
-        <v>6988.24</v>
+        <v>8914</v>
       </c>
       <c r="H377" s="0" t="s">
         <v>27</v>
@@ -12350,7 +12346,7 @@
         <v>65</v>
       </c>
       <c r="G378" s="6" t="n">
-        <v>10569.38</v>
+        <v>13482</v>
       </c>
       <c r="H378" s="0" t="s">
         <v>27</v>
@@ -12382,7 +12378,7 @@
         <v>99</v>
       </c>
       <c r="G379" s="6" t="n">
-        <v>15643.57</v>
+        <v>19955</v>
       </c>
       <c r="H379" s="0" t="s">
         <v>27</v>
@@ -12414,7 +12410,7 @@
         <v>1</v>
       </c>
       <c r="G380" s="6" t="n">
-        <v>5233.46</v>
+        <v>6676</v>
       </c>
       <c r="H380" s="0" t="s">
         <v>27</v>
@@ -12446,7 +12442,7 @@
         <v>5</v>
       </c>
       <c r="G381" s="6" t="n">
-        <v>3624.95</v>
+        <v>4624</v>
       </c>
       <c r="H381" s="0" t="s">
         <v>27</v>
@@ -12478,7 +12474,7 @@
         <v>15</v>
       </c>
       <c r="G382" s="6" t="n">
-        <v>3443.67</v>
+        <v>4393</v>
       </c>
       <c r="H382" s="0" t="s">
         <v>27</v>
@@ -12510,7 +12506,7 @@
         <v>20</v>
       </c>
       <c r="G383" s="6" t="n">
-        <v>3276.82</v>
+        <v>4180</v>
       </c>
       <c r="H383" s="0" t="s">
         <v>27</v>
@@ -12542,7 +12538,7 @@
         <v>25</v>
       </c>
       <c r="G384" s="6" t="n">
-        <v>5805.77</v>
+        <v>7406</v>
       </c>
       <c r="H384" s="0" t="s">
         <v>27</v>
@@ -12574,7 +12570,7 @@
         <v>30</v>
       </c>
       <c r="G385" s="6" t="n">
-        <v>6656.89</v>
+        <v>8491</v>
       </c>
       <c r="H385" s="0" t="s">
         <v>27</v>
@@ -12606,7 +12602,7 @@
         <v>35</v>
       </c>
       <c r="G386" s="6" t="n">
-        <v>6305.84</v>
+        <v>8044</v>
       </c>
       <c r="H386" s="0" t="s">
         <v>27</v>
@@ -12638,7 +12634,7 @@
         <v>40</v>
       </c>
       <c r="G387" s="6" t="n">
-        <v>5308.15</v>
+        <v>6771</v>
       </c>
       <c r="H387" s="0" t="s">
         <v>27</v>
@@ -12670,7 +12666,7 @@
         <v>45</v>
       </c>
       <c r="G388" s="6" t="n">
-        <v>5296.41</v>
+        <v>6756</v>
       </c>
       <c r="H388" s="0" t="s">
         <v>27</v>
@@ -12702,7 +12698,7 @@
         <v>50</v>
       </c>
       <c r="G389" s="6" t="n">
-        <v>6154.65</v>
+        <v>7851</v>
       </c>
       <c r="H389" s="0" t="s">
         <v>27</v>
@@ -12734,7 +12730,7 @@
         <v>55</v>
       </c>
       <c r="G390" s="6" t="n">
-        <v>7024.82</v>
+        <v>8961</v>
       </c>
       <c r="H390" s="0" t="s">
         <v>27</v>
@@ -12766,7 +12762,7 @@
         <v>60</v>
       </c>
       <c r="G391" s="6" t="n">
-        <v>7994.15</v>
+        <v>10197</v>
       </c>
       <c r="H391" s="0" t="s">
         <v>27</v>
@@ -12798,7 +12794,7 @@
         <v>65</v>
       </c>
       <c r="G392" s="6" t="n">
-        <v>12702.94</v>
+        <v>16204</v>
       </c>
       <c r="H392" s="0" t="s">
         <v>27</v>
@@ -12830,7 +12826,7 @@
         <v>99</v>
       </c>
       <c r="G393" s="6" t="n">
-        <v>15375.05</v>
+        <v>19612</v>
       </c>
       <c r="H393" s="0" t="s">
         <v>27</v>
@@ -12862,7 +12858,7 @@
         <v>1</v>
       </c>
       <c r="G394" s="6" t="n">
-        <v>2824</v>
+        <v>4346</v>
       </c>
       <c r="H394" s="0" t="s">
         <v>27</v>
@@ -12894,7 +12890,7 @@
         <v>5</v>
       </c>
       <c r="G395" s="6" t="n">
-        <v>1980.16</v>
+        <v>2958</v>
       </c>
       <c r="H395" s="0" t="s">
         <v>27</v>
@@ -12926,7 +12922,7 @@
         <v>15</v>
       </c>
       <c r="G396" s="6" t="n">
-        <v>1831.14</v>
+        <v>2233</v>
       </c>
       <c r="H396" s="0" t="s">
         <v>27</v>
@@ -12958,7 +12954,7 @@
         <v>20</v>
       </c>
       <c r="G397" s="6" t="n">
-        <v>1506.27</v>
+        <v>2275</v>
       </c>
       <c r="H397" s="0" t="s">
         <v>27</v>
@@ -12990,7 +12986,7 @@
         <v>25</v>
       </c>
       <c r="G398" s="6" t="n">
-        <v>1453.56</v>
+        <v>2291</v>
       </c>
       <c r="H398" s="0" t="s">
         <v>27</v>
@@ -13022,7 +13018,7 @@
         <v>30</v>
       </c>
       <c r="G399" s="6" t="n">
-        <v>1596.75</v>
+        <v>2469</v>
       </c>
       <c r="H399" s="0" t="s">
         <v>27</v>
@@ -13054,7 +13050,7 @@
         <v>35</v>
       </c>
       <c r="G400" s="6" t="n">
-        <v>1711.2</v>
+        <v>2666</v>
       </c>
       <c r="H400" s="0" t="s">
         <v>27</v>
@@ -13086,7 +13082,7 @@
         <v>40</v>
       </c>
       <c r="G401" s="6" t="n">
-        <v>1906.49</v>
+        <v>2971</v>
       </c>
       <c r="H401" s="0" t="s">
         <v>27</v>
@@ -13118,7 +13114,7 @@
         <v>45</v>
       </c>
       <c r="G402" s="6" t="n">
-        <v>2110</v>
+        <v>3367</v>
       </c>
       <c r="H402" s="0" t="s">
         <v>27</v>
@@ -13150,7 +13146,7 @@
         <v>50</v>
       </c>
       <c r="G403" s="6" t="n">
-        <v>2525.06</v>
+        <v>4014</v>
       </c>
       <c r="H403" s="0" t="s">
         <v>27</v>
@@ -13182,7 +13178,7 @@
         <v>55</v>
       </c>
       <c r="G404" s="6" t="n">
-        <v>3243.39</v>
+        <v>4773</v>
       </c>
       <c r="H404" s="0" t="s">
         <v>27</v>
@@ -13214,7 +13210,7 @@
         <v>60</v>
       </c>
       <c r="G405" s="6" t="n">
-        <v>3644</v>
+        <v>5560</v>
       </c>
       <c r="H405" s="0" t="s">
         <v>27</v>
@@ -13246,7 +13242,7 @@
         <v>65</v>
       </c>
       <c r="G406" s="6" t="n">
-        <v>5503.87</v>
+        <v>8326</v>
       </c>
       <c r="H406" s="0" t="s">
         <v>27</v>
@@ -13278,7 +13274,7 @@
         <v>99</v>
       </c>
       <c r="G407" s="6" t="n">
-        <v>8145.29</v>
+        <v>11162</v>
       </c>
       <c r="H407" s="0" t="s">
         <v>27</v>
@@ -13310,7 +13306,7 @@
         <v>1</v>
       </c>
       <c r="G408" s="6" t="n">
-        <v>2824</v>
+        <v>4346</v>
       </c>
       <c r="H408" s="0" t="s">
         <v>27</v>
@@ -13342,7 +13338,7 @@
         <v>5</v>
       </c>
       <c r="G409" s="6" t="n">
-        <v>1980.16</v>
+        <v>2958</v>
       </c>
       <c r="H409" s="0" t="s">
         <v>27</v>
@@ -13374,7 +13370,7 @@
         <v>15</v>
       </c>
       <c r="G410" s="6" t="n">
-        <v>1831.14</v>
+        <v>2233</v>
       </c>
       <c r="H410" s="0" t="s">
         <v>27</v>
@@ -13406,7 +13402,7 @@
         <v>20</v>
       </c>
       <c r="G411" s="6" t="n">
-        <v>1744.91</v>
+        <v>2615</v>
       </c>
       <c r="H411" s="0" t="s">
         <v>27</v>
@@ -13438,7 +13434,7 @@
         <v>25</v>
       </c>
       <c r="G412" s="6" t="n">
-        <v>3087.81</v>
+        <v>4889</v>
       </c>
       <c r="H412" s="0" t="s">
         <v>27</v>
@@ -13470,7 +13466,7 @@
         <v>30</v>
       </c>
       <c r="G413" s="6" t="n">
-        <v>3531.45</v>
+        <v>5601</v>
       </c>
       <c r="H413" s="0" t="s">
         <v>27</v>
@@ -13502,7 +13498,7 @@
         <v>35</v>
       </c>
       <c r="G414" s="6" t="n">
-        <v>3339.08</v>
+        <v>5334</v>
       </c>
       <c r="H414" s="0" t="s">
         <v>27</v>
@@ -13534,7 +13530,7 @@
         <v>40</v>
       </c>
       <c r="G415" s="6" t="n">
-        <v>2820.46</v>
+        <v>4513</v>
       </c>
       <c r="H415" s="0" t="s">
         <v>27</v>
@@ -13566,7 +13562,7 @@
         <v>45</v>
       </c>
       <c r="G416" s="6" t="n">
-        <v>2818.82</v>
+        <v>4489</v>
       </c>
       <c r="H416" s="0" t="s">
         <v>27</v>
@@ -13598,7 +13594,7 @@
         <v>50</v>
       </c>
       <c r="G417" s="6" t="n">
-        <v>3260.86</v>
+        <v>5187</v>
       </c>
       <c r="H417" s="0" t="s">
         <v>27</v>
@@ -13630,7 +13626,7 @@
         <v>55</v>
       </c>
       <c r="G418" s="6" t="n">
-        <v>3744.13</v>
+        <v>5627</v>
       </c>
       <c r="H418" s="0" t="s">
         <v>27</v>
@@ -13662,7 +13658,7 @@
         <v>60</v>
       </c>
       <c r="G419" s="6" t="n">
-        <v>4255.31</v>
+        <v>6480</v>
       </c>
       <c r="H419" s="0" t="s">
         <v>27</v>
@@ -13694,7 +13690,7 @@
         <v>65</v>
       </c>
       <c r="G420" s="6" t="n">
-        <v>6757.49</v>
+        <v>10422</v>
       </c>
       <c r="H420" s="0" t="s">
         <v>27</v>
@@ -13726,7 +13722,7 @@
         <v>99</v>
       </c>
       <c r="G421" s="6" t="n">
-        <v>8145.29</v>
+        <v>11162</v>
       </c>
       <c r="H421" s="0" t="s">
         <v>27</v>
@@ -14219,7 +14215,6 @@
       <c r="G541" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -14227,6 +14222,5 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>